--- a/Document/餐饮.xlsx
+++ b/Document/餐饮.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="连锁餐厅信息" sheetId="4" r:id="rId1"/>
@@ -22,13 +22,17 @@
     <sheet name="微信支付通知" sheetId="18" r:id="rId13"/>
     <sheet name="微信告警" sheetId="19" r:id="rId14"/>
     <sheet name="微信订单中间表" sheetId="20" r:id="rId15"/>
+    <sheet name="用餐预定" sheetId="21" r:id="rId16"/>
+    <sheet name="红包配置" sheetId="22" r:id="rId17"/>
+    <sheet name="分发红包" sheetId="23" r:id="rId18"/>
+    <sheet name="套餐" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="440">
   <si>
     <t>更新时间</t>
   </si>
@@ -355,11 +359,482 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>是否允许用红包1允许0禁止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_envelope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐到付款1允许0禁止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_offline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜风格(酸甜辣)sphinx模糊搜索用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>style_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜风格id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>style_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销饭菜1是0否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_promotion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销饭菜1是0否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_hot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixin_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价(销售价格)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物名(sphinx模糊搜索)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类字符串(sphinx模糊搜索用)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类id(对应food_category.id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅名(sphinx模糊搜索用)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜(food)</t>
+  </si>
+  <si>
+    <t>饭菜id对应food表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜详细(food_detail)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台id(对应micro_platform.id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜id对应food表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微餐饮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜风格(food_style)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台id(对应micro_platform.id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐车内容存json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id对应member表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐车(food_car)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount=food_amount+delivery_fee=real_pay_amount+envelope_used_amount+card_used_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>送餐时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态-1取消1已提交2待送餐已支付3送餐中4完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单是否已打印0未打印1已打印</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_printed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信或支付宝交易订单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_trade_no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收货地址id对应food_address表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡包使用金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_used_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包使用金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>envelope_used_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际支付总金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_pay_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐总金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>送餐费用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_fee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式:1微信2支付宝3线下付款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型:0在餐厅下单用餐1线上订餐配送到家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅负责人id对应member表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining_member_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐用户id对应member表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐订单(food_order)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡卷使用金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用卡卷1使用0未使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_card</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包使用百分比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>red_envelope_percent</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>是否允许用红包1允许0禁止</t>
+    <t>使用红包1使用0未使用</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -367,15 +842,75 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>餐到付款1允许0禁止</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_offline</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭菜风格(酸甜辣)sphinx模糊搜索用</t>
+    <t>实际支付金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额count*price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixin_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id对应food_order表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐订单明细(food_order_detail)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -383,981 +918,845 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>style_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭菜风格id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>style_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销饭菜1是0否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_promotion</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销饭菜1是0否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_hot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>note</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前帐号金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额对应food_order表real_pay_amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id对应food_order表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式1微信2支付吧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅负责人id对应member表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining_member_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐用户id对应member表id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐订单流水(food_money_water)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户投诉单id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户openid对应member表wx_openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户昵称对应member表nickname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid</t>
+  </si>
+  <si>
+    <t>appid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台appid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appsignature</t>
+  </si>
+  <si>
+    <t>appsignature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信投诉单签名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型request用户提交投诉cofirm用户确认取消投诉reject用户拒绝取消投诉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户投诉时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户投诉原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户希望解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息+电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐微信维权表(food_wx_feedback)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐微信支付通知(food_wx_notify)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_trade_no</t>
+  </si>
+  <si>
+    <t>out_trade_no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键商户系统订单号 和 food_order表out_trade_no一致</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模式 1即时到账 其他保留</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_state</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态 支付结果 0成功 其他保留</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付结果信息 支付成功是为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户号 即partnerid 10位正整数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款银行 如WX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_billno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_count</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorite_times</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_times</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_times</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付金额单位为分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金支付币种 1人民币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付结果通知id(据此查询交易结果)</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易号</t>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户数据包</t>
+  </si>
+  <si>
+    <t>time_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流费用单位分</t>
+  </si>
+  <si>
+    <t>product_fee</t>
+  </si>
+  <si>
+    <t>物品费用单位分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣价格</t>
+  </si>
+  <si>
+    <t>buyer_alias</t>
+  </si>
+  <si>
+    <t>买家别名</t>
+  </si>
+  <si>
+    <t>商户appid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐微信告警(food_wx_warn)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining_room_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅id(对应dining_room.id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商城客户appid</t>
+  </si>
+  <si>
+    <t>微信告警签名</t>
+  </si>
+  <si>
+    <t>error_type</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信告警描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信价格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价(销售价格)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警描述详情</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警处理状态0 未处理 1 已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信告警生成时间',</t>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信告警信息修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购餐微信告警(food_wx_order)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json形式存food_order表id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店用餐预定(dining_reserve)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用餐人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meal_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用餐时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe_has_envelope</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注送现金红包1是0否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe_envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注送红包金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_envelope_percent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset_cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可抵消现金(现金结账扫描减红包金额)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包配置(dining_envelope_config)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsubscribe_reduce_envelope</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消关注扣减红包1是0否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce_envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注扣减红包金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发红包(dining_red_envelope)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
+  </si>
+  <si>
+    <t>envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发红包金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包发完时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_sended</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已发送1是0否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人可领取金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包剩余金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包活动是否结束1是0否(红包领取完自动结束)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包领取统计(dining_envelope_info)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>only_subscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只有关注才能领取红包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到红包金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>received_envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户openid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户剩余红包金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包使用0领取1消费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_envelope_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包消费使用金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取或消费红包时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐截止时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐状态1上架0下架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_red_envelope</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许使用红包0禁止1允许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许使用优惠券0禁止1允许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐(dining_setmenu)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐明细(dining_setmenu_detail)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmenu_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物名(sphinx模糊搜索)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空字符串</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分类字符串(sphinx模糊搜索用)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分类id(对应food_category.id)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅名(sphinx模糊搜索用)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dining_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜(food)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmenu_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmenu_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否属于套餐1是0否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>饭菜id对应food表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭菜详细(food_detail)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风格描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众平台id(对应micro_platform.id)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭菜id对应food表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微餐饮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭菜风格(food_style)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众平台id(对应micro_platform.id)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐车内容存json</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id对应member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐车(food_car)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount=food_amount+delivery_fee=real_pay_amount+envelope_used_amount+card_used_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>送餐时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据状态-1取消1已提交2待送餐已支付3送餐中4完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空字符串</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单是否已打印0未打印1已打印</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_printed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信或支付宝交易订单号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_trade_no</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收货地址id对应food_address表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡包使用金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_used_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包使用金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>envelope_used_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际支付总金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_pay_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐费</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐总金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>送餐费用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_fee</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式:1微信2支付宝3线下付款</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单类型:0在餐厅下单用餐1线上订餐配送到家</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_no</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅负责人id对应member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dining_member_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐用户id对应member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐订单(food_order)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡卷使用金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用卡卷1使用0未使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_card</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包使用百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>red_envelope_percent</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用红包1使用0未使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_envelope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际支付金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额count*price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信价格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id对应food_order表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐订单明细(food_order_detail)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空字符串</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前帐号金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单金额对应food_order表real_pay_amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id对应food_order表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式1微信2支付吧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅负责人id对应member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dining_member_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐用户id对应member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐订单流水(food_money_water)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedback_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户投诉单id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_openid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空字符串</t>
-  </si>
-  <si>
-    <t>空字符串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户openid对应member表wx_openid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户昵称对应member表nickname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>appid</t>
-  </si>
-  <si>
-    <t>appid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众平台appid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>appsignature</t>
-  </si>
-  <si>
-    <t>appsignature</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信投诉单签名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型request用户提交投诉cofirm用户确认取消投诉reject用户拒绝取消投诉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户投诉时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>trans_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户投诉原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>solution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户希望解决方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息+电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedback_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐微信维权表(food_wx_feedback)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐微信支付通知(food_wx_notify)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_trade_no</t>
-  </si>
-  <si>
-    <t>out_trade_no</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键商户系统订单号 和 food_order表out_trade_no一致</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_mode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易模式 1即时到账 其他保留</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_state</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态 支付结果 0成功 其他保留</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付结果信息 支付成功是为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户号 即partnerid 10位正整数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款银行 如WX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_billno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_fee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付金额单位为分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金支付币种 1人民币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付结果通知id(据此查询交易结果)</t>
-  </si>
-  <si>
-    <t>transaction_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易号</t>
-  </si>
-  <si>
-    <t>attach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户数据包</t>
-  </si>
-  <si>
-    <t>time_end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易完成时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transport_fee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流费用单位分</t>
-  </si>
-  <si>
-    <t>product_fee</t>
-  </si>
-  <si>
-    <t>物品费用单位分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>discount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣价格</t>
-  </si>
-  <si>
-    <t>buyer_alias</t>
-  </si>
-  <si>
-    <t>买家别名</t>
-  </si>
-  <si>
-    <t>商户appid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐微信告警(food_wx_warn)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id主键  autoincrement(自增) unsingned(不允许有负数)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_setmenu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是套餐活动预定如年夜饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_deposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要支付押金0否1是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定活动名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受预定结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受预定开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态1接受预定0不接受预定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dining_room_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅id(对应dining_room.id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商城客户appid</t>
-  </si>
-  <si>
-    <t>微信告警签名</t>
-  </si>
-  <si>
-    <t>error_type</t>
-  </si>
-  <si>
-    <t>错误代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信告警描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarm_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警描述详情</t>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警处理状态0 未处理 1 已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信告警生成时间',</t>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信告警信息修改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购餐微信告警(food_wx_order)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信支付订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json形式存food_order表id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1551,6 +1950,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1575,34 +1985,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1920,14 +2319,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -1950,10 +2349,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1972,8 +2371,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -2307,14 +2706,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -2337,12 +2736,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -2355,17 +2754,17 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -2375,15 +2774,15 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3">
         <v>11</v>
@@ -2393,12 +2792,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
@@ -2411,7 +2810,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2434,10 +2833,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="3">
         <v>11</v>
@@ -2447,15 +2846,15 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>11</v>
@@ -2465,123 +2864,123 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -2591,51 +2990,51 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -2645,43 +3044,43 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="3">
         <v>255</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="3:8">
@@ -2750,14 +3149,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -2780,12 +3179,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="9"/>
+      <c r="A4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -2798,17 +3197,17 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -2818,15 +3217,15 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3">
         <v>11</v>
@@ -2836,12 +3235,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
@@ -2854,7 +3253,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2877,10 +3276,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -2890,15 +3289,15 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3">
         <v>11</v>
@@ -2908,69 +3307,69 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="3">
         <v>256</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3">
         <v>11</v>
@@ -2980,15 +3379,15 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3">
         <v>11</v>
@@ -2998,7 +3397,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3023,348 +3422,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="17" style="13" customWidth="1"/>
-    <col min="4" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="9" style="13" customWidth="1"/>
-    <col min="8" max="8" width="67.625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="17" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="9" style="5" customWidth="1"/>
+    <col min="8" max="8" width="67.625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="7">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="15">
-        <v>63</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7">
+        <v>256</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7">
+        <v>256</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="7">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="7">
+        <v>256</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7">
+        <v>256</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="7">
+        <v>256</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="15">
-        <v>128</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="15">
-        <v>30</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="15">
-        <v>256</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="15">
-        <v>256</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="15">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="15">
-        <v>28</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="15">
-        <v>256</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="15">
-        <v>256</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="15">
-        <v>256</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="7">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="7">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="15">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="15">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3387,507 +3786,507 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="17.625" style="13" customWidth="1"/>
-    <col min="4" max="7" width="9" style="13"/>
-    <col min="8" max="8" width="65" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="17.625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="65" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="7">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="15">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="7">
+        <v>64</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="7">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="7">
         <v>32</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="F13" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="7">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="7">
         <v>128</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="15">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="15">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
+      <c r="F16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="E17" s="7">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="7">
+        <v>128</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="7">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="7">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="7">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="7">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="7">
         <v>64</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="15">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E12" s="15">
-        <v>16</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="15">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="15">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="15">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="15">
-        <v>128</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="15">
-        <v>28</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="15">
-        <v>128</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="15">
-        <v>11</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="15">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E21" s="15">
-        <v>11</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="15">
-        <v>11</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14" t="s">
+      <c r="F23" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="15">
-        <v>64</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="7">
+        <v>256</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="15">
-        <v>256</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="15">
-        <v>11</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="D25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="7">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="15">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14" t="s">
-        <v>270</v>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="7">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3915,273 +4314,273 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="15">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
         <v>140</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
         <v>128</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>136</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="15">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7">
+        <v>256</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="15">
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7">
         <v>256</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="F9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="15">
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="7">
         <v>256</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="15">
-        <v>32</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="15">
-        <v>256</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="15">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="7">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="15">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4198,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4209,219 +4608,2021 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="15">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="15">
-        <v>128</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="15">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="15">
-        <v>32</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="7">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="15">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="54.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="7">
+        <v>128</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="7">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="7">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="7">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="7">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="7">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="7">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="7">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="7">
+        <v>128</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="7">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="7">
+        <v>11</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C19:H19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="57.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="7">
+        <v>256</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="7">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="7">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="7">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="7">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="7">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="7">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="7">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="7">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="7">
+        <v>11</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="7">
+        <v>256</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="7">
+        <v>11</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7">
+        <v>11</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4433,7 +6634,7 @@
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4446,14 +6647,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -4476,10 +6677,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4498,8 +6699,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -4815,14 +7016,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -4845,10 +7046,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4867,8 +7068,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -5078,14 +7279,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -5108,10 +7309,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5130,8 +7331,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -5310,7 +7511,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5323,14 +7524,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -5353,10 +7554,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5371,12 +7572,12 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -5432,28 +7633,28 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3">
         <v>11</v>
@@ -5463,48 +7664,48 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>84</v>
@@ -5517,12 +7718,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>84</v>
@@ -5535,12 +7736,12 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>84</v>
@@ -5553,15 +7754,15 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -5571,12 +7772,12 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>84</v>
@@ -5589,29 +7790,29 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3">
         <v>11</v>
@@ -5621,15 +7822,15 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3">
         <v>11</v>
@@ -5639,15 +7840,15 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3">
         <v>11</v>
@@ -5657,15 +7858,15 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3">
         <v>11</v>
@@ -5675,12 +7876,12 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>81</v>
@@ -5693,12 +7894,12 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>81</v>
@@ -5711,12 +7912,12 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>81</v>
@@ -5729,15 +7930,15 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3">
         <v>20</v>
@@ -5747,12 +7948,12 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>81</v>
@@ -5765,12 +7966,12 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
@@ -5783,12 +7984,12 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>84</v>
@@ -5892,7 +8093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
@@ -5906,14 +8107,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -5936,12 +8137,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -5954,12 +8155,12 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -6169,14 +8370,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -6199,12 +8400,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="9"/>
+      <c r="A4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -6217,17 +8418,17 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -6237,7 +8438,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6255,7 +8456,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6296,7 +8497,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -6309,7 +8510,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6394,14 +8595,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -6424,12 +8625,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -6442,17 +8643,17 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -6462,26 +8663,26 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
@@ -6494,7 +8695,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6581,14 +8782,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="4" t="s">
@@ -6611,12 +8812,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -6629,17 +8830,17 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -6649,15 +8850,15 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3">
         <v>11</v>
@@ -6667,12 +8868,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
@@ -6685,7 +8886,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6708,28 +8909,28 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="3">
         <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -6739,15 +8940,15 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -6757,141 +8958,141 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="3">
         <v>11</v>
@@ -6901,15 +9102,15 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="3">
         <v>32</v>
@@ -6919,15 +9120,15 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -6937,33 +9138,33 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="3">
         <v>255</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -6973,15 +9174,15 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="3">
         <v>11</v>
@@ -6991,15 +9192,15 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="3">
         <v>11</v>
@@ -7009,15 +9210,15 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="3">
         <v>11</v>
@@ -7027,7 +9228,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="3:8">
@@ -7067,14 +9268,14 @@
       </c>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="C30" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
